--- a/biology/Microbiologie/Furgasoniidae/Furgasoniidae.xlsx
+++ b/biology/Microbiologie/Furgasoniidae/Furgasoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Furgasoniidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Furgasonia, sans doute donné en hommage au protozoologiste américain Waldo Hamlet Furgason (1902-1975)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Furgasonia, sans doute donné en hommage au protozoologiste américain Waldo Hamlet Furgason (1902-1975). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Furgasoniidae ont une taille, petite à moyenne ; une forme, ovoïde à ellipsoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme). Leurs extrusomes (en) somatiques sont sous forme de trichocystes fusiformes. Leur région buccale est située dans le 1/3 antérieur du corps avec un à trois polykinétides buccaux gauches et un court paroral droit dans la région buccale. On note la présence d'un cyrtos entourant le cytostome-cytopharynx (orifice buccal) . Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile est médio-ventrale. Ils se nourrissent de bactéries et de petits protistes, ainsi que de microalgues[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Furgasoniidae ont une taille, petite à moyenne ; une forme, ovoïde à ellipsoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme). Leurs extrusomes (en) somatiques sont sous forme de trichocystes fusiformes. Leur région buccale est située dans le 1/3 antérieur du corps avec un à trois polykinétides buccaux gauches et un court paroral droit dans la région buccale. On note la présence d'un cyrtos entourant le cytostome-cytopharynx (orifice buccal) . Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile est médio-ventrale. Ils se nourrissent de bactéries et de petits protistes, ainsi que de microalgues.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Furgasoniidae vivent généralement dans des habitats d'eau douce, mais parfois terrestres[2].
-GBIF       (18 juillet 2023)[3] a recensé les espèces de Furgasoniidae sur une grande partie du globe, sur tous les continents et les milieux marins.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Furgasoniidae vivent généralement dans des habitats d'eau douce, mais parfois terrestres.
+GBIF       (18 juillet 2023) a recensé les espèces de Furgasoniidae sur une grande partie du globe, sur tous les continents et les milieux marins.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 juillet 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 juillet 2023) :
 Foissneria Mirabdullayev, 1986
 Furgasonia Jankowski, 1964  genre type
 Genre synonyme : Cyclogramma Perty, 1849
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Furgasoniidae Corliss, 1979[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Furgasoniidae Corliss, 1979.
 </t>
         </is>
       </c>
